--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H2">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I2">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J2">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>0.9612496115820001</v>
+        <v>15.03794892257778</v>
       </c>
       <c r="R2">
-        <v>8.651246504237999</v>
+        <v>135.3415403032</v>
       </c>
       <c r="S2">
-        <v>0.0009609020302844073</v>
+        <v>0.01195549031797075</v>
       </c>
       <c r="T2">
-        <v>0.0009687772293926169</v>
+        <v>0.01200476498189948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H3">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I3">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J3">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>2.578000615587</v>
+        <v>17.81515625108789</v>
       </c>
       <c r="R3">
-        <v>23.202005540283</v>
+        <v>160.336406259791</v>
       </c>
       <c r="S3">
-        <v>0.002577068428163084</v>
+        <v>0.01416342941245389</v>
       </c>
       <c r="T3">
-        <v>0.002598189131780765</v>
+        <v>0.01422180411778304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.025457</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H4">
-        <v>12.076371</v>
+        <v>429.64891</v>
       </c>
       <c r="I4">
-        <v>0.007988230327331255</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J4">
-        <v>0.008053698920764607</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>4.451869634553</v>
+        <v>197.0274423724445</v>
       </c>
       <c r="R4">
-        <v>40.066826710977</v>
+        <v>1773.246981352</v>
       </c>
       <c r="S4">
-        <v>0.004450259868883764</v>
+        <v>0.1566410214442007</v>
       </c>
       <c r="T4">
-        <v>0.004486732559591225</v>
+        <v>0.157286618862946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>429.64891</v>
       </c>
       <c r="I5">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J5">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>34.19900298310889</v>
+        <v>233.4144562991123</v>
       </c>
       <c r="R5">
-        <v>307.79102684798</v>
+        <v>2100.73010669201</v>
       </c>
       <c r="S5">
-        <v>0.03418663685708916</v>
+        <v>0.1855694740503273</v>
       </c>
       <c r="T5">
-        <v>0.03446681794070072</v>
+        <v>0.1863343003540646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.2163033333333</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H6">
-        <v>429.64891</v>
+        <v>471.566864</v>
       </c>
       <c r="I6">
-        <v>0.2842024688515132</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J6">
-        <v>0.2865316876050504</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6404243333333333</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N6">
-        <v>1.921273</v>
+        <v>4.1272</v>
       </c>
       <c r="O6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q6">
-        <v>91.71920558471444</v>
+        <v>216.2500845667556</v>
       </c>
       <c r="R6">
-        <v>825.4728502624299</v>
+        <v>1946.2507611008</v>
       </c>
       <c r="S6">
-        <v>0.09168604054609472</v>
+        <v>0.1719234322186421</v>
       </c>
       <c r="T6">
-        <v>0.09243746556340909</v>
+        <v>0.1726320162347501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.2163033333333</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H7">
-        <v>429.64891</v>
+        <v>471.566864</v>
       </c>
       <c r="I7">
-        <v>0.2842024688515132</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J7">
-        <v>0.2865316876050504</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105929</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N7">
-        <v>3.317787</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q7">
-        <v>158.38706312913</v>
+        <v>256.1871346752338</v>
       </c>
       <c r="R7">
-        <v>1425.48356816217</v>
+        <v>2305.684212077104</v>
       </c>
       <c r="S7">
-        <v>0.1583297914483293</v>
+        <v>0.2036742393505483</v>
       </c>
       <c r="T7">
-        <v>0.1596274041009406</v>
+        <v>0.204513684611932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.72041200000001</v>
+        <v>5.153359</v>
       </c>
       <c r="H8">
-        <v>257.161236</v>
+        <v>10.306718</v>
       </c>
       <c r="I8">
-        <v>0.1701060015818651</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J8">
-        <v>0.1715001277151632</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N8">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q8">
-        <v>20.46940576924533</v>
+        <v>7.089647754933334</v>
       </c>
       <c r="R8">
-        <v>184.224651923208</v>
+        <v>42.5378865296</v>
       </c>
       <c r="S8">
-        <v>0.02046200417185325</v>
+        <v>0.005636421265181363</v>
       </c>
       <c r="T8">
-        <v>0.0206297032212128</v>
+        <v>0.003773101218373543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.72041200000001</v>
+        <v>5.153359</v>
       </c>
       <c r="H9">
-        <v>257.161236</v>
+        <v>10.306718</v>
       </c>
       <c r="I9">
-        <v>0.1701060015818651</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J9">
-        <v>0.1715001277151632</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N9">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q9">
-        <v>54.89743770815867</v>
+        <v>8.398963393849668</v>
       </c>
       <c r="R9">
-        <v>494.076939373428</v>
+        <v>50.39378036309801</v>
       </c>
       <c r="S9">
-        <v>0.05487758716943988</v>
+        <v>0.006677355140194726</v>
       </c>
       <c r="T9">
-        <v>0.05532734366065008</v>
+        <v>0.004469917280778495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.72041200000001</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H10">
-        <v>257.161236</v>
+        <v>306.042184</v>
       </c>
       <c r="I10">
-        <v>0.1701060015818651</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J10">
-        <v>0.1715001277151632</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N10">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q10">
-        <v>94.800689522748</v>
+        <v>140.3441446449778</v>
       </c>
       <c r="R10">
-        <v>853.2062057047322</v>
+        <v>1263.0973018048</v>
       </c>
       <c r="S10">
-        <v>0.09476641024057199</v>
+        <v>0.1115765900739141</v>
       </c>
       <c r="T10">
-        <v>0.09554308083330026</v>
+        <v>0.1120364540219399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.2891965</v>
+        <v>102.0140613333333</v>
       </c>
       <c r="H11">
-        <v>24.578393</v>
+        <v>306.042184</v>
       </c>
       <c r="I11">
-        <v>0.02438702790262897</v>
+        <v>0.2437591368004809</v>
       </c>
       <c r="J11">
-        <v>0.0163912633338466</v>
+        <v>0.2447637923374727</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N11">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q11">
-        <v>2.934570003425667</v>
+        <v>166.2628912126249</v>
       </c>
       <c r="R11">
-        <v>17.607420020554</v>
+        <v>1496.366020913624</v>
       </c>
       <c r="S11">
-        <v>0.002933508882945224</v>
+        <v>0.1321825467265668</v>
       </c>
       <c r="T11">
-        <v>0.00197170056082766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>12.2891965</v>
-      </c>
-      <c r="H12">
-        <v>24.578393</v>
-      </c>
-      <c r="I12">
-        <v>0.02438702790262897</v>
-      </c>
-      <c r="J12">
-        <v>0.0163912633338466</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.921273</v>
-      </c>
-      <c r="O12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q12">
-        <v>7.870300475714833</v>
-      </c>
-      <c r="R12">
-        <v>47.221802854289</v>
-      </c>
-      <c r="S12">
-        <v>0.007867454628789296</v>
-      </c>
-      <c r="T12">
-        <v>0.005287955592722056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>12.2891965</v>
-      </c>
-      <c r="H13">
-        <v>24.578393</v>
-      </c>
-      <c r="I13">
-        <v>0.02438702790262897</v>
-      </c>
-      <c r="J13">
-        <v>0.0163912633338466</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>1.105929</v>
-      </c>
-      <c r="N13">
-        <v>3.317787</v>
-      </c>
-      <c r="O13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q13">
-        <v>13.5909787960485</v>
-      </c>
-      <c r="R13">
-        <v>81.54587277629101</v>
-      </c>
-      <c r="S13">
-        <v>0.01358606439089445</v>
-      </c>
-      <c r="T13">
-        <v>0.009131607180296883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>258.672133</v>
-      </c>
-      <c r="H14">
-        <v>776.016399</v>
-      </c>
-      <c r="I14">
-        <v>0.5133162713366615</v>
-      </c>
-      <c r="J14">
-        <v>0.5175232224251752</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2387926666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.716378</v>
-      </c>
-      <c r="O14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="P14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="Q14">
-        <v>61.76900843142466</v>
-      </c>
-      <c r="R14">
-        <v>555.9210758828219</v>
-      </c>
-      <c r="S14">
-        <v>0.06174667317964101</v>
-      </c>
-      <c r="T14">
-        <v>0.06225272616967924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>258.672133</v>
-      </c>
-      <c r="H15">
-        <v>776.016399</v>
-      </c>
-      <c r="I15">
-        <v>0.5133162713366615</v>
-      </c>
-      <c r="J15">
-        <v>0.5175232224251752</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.921273</v>
-      </c>
-      <c r="O15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q15">
-        <v>165.6599283284363</v>
-      </c>
-      <c r="R15">
-        <v>1490.939354955927</v>
-      </c>
-      <c r="S15">
-        <v>0.1656000268292276</v>
-      </c>
-      <c r="T15">
-        <v>0.1669572236531525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>258.672133</v>
-      </c>
-      <c r="H16">
-        <v>776.016399</v>
-      </c>
-      <c r="I16">
-        <v>0.5133162713366615</v>
-      </c>
-      <c r="J16">
-        <v>0.5175232224251752</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.105929</v>
-      </c>
-      <c r="N16">
-        <v>3.317787</v>
-      </c>
-      <c r="O16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q16">
-        <v>286.073013376557</v>
-      </c>
-      <c r="R16">
-        <v>2574.657120389013</v>
-      </c>
-      <c r="S16">
-        <v>0.2859695713277929</v>
-      </c>
-      <c r="T16">
-        <v>0.2883132726023435</v>
+        <v>0.1327273383155328</v>
       </c>
     </row>
   </sheetData>
